--- a/output/audienceId.xlsx
+++ b/output/audienceId.xlsx
@@ -8,19 +8,32 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b10797a7d17ad6ba/Tec/JD_dataCode/Predict_AudienceSize/output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_08B5A0B49A68BA0F6235547658AACE788173AEA0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{77E2974C-3ED4-4880-BA21-5E87C1476031}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_7A45149A1E73CA0E62355476585DCE3A874708AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB2CF9C8-199C-41B4-BE5E-8D03D91C5B9E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>name</t>
   </si>
@@ -31,154 +44,455 @@
     <t>audienceSize</t>
   </si>
   <si>
-    <t>Y22-4月-新增资产</t>
-  </si>
-  <si>
-    <t>F23-4月-TTL已购∩新客</t>
-  </si>
-  <si>
-    <t>F23-4月-TTL已购</t>
-  </si>
-  <si>
-    <t>W-Y23.4-直投贡献A0-A1</t>
-  </si>
-  <si>
-    <t>W-Y22.4-直投贡献A0-A1</t>
-  </si>
-  <si>
-    <t>J-Y23-4月-新增资产</t>
-  </si>
-  <si>
-    <t>Y22男士护肤214/520/圣诞</t>
-  </si>
-  <si>
-    <t>DDM-F23 3月∩F23年4月</t>
-  </si>
-  <si>
-    <t>EBCI-F23 3月∩F23年4月已购</t>
-  </si>
-  <si>
-    <t>TTDO：F23年3月∩F23年4月</t>
-  </si>
-  <si>
-    <t>Smart：F23年3月∩F23年4月</t>
-  </si>
-  <si>
-    <t>EYE:F23年3月∩F23年4月</t>
-  </si>
-  <si>
-    <t>Smart Serum-sku-4月-新客小</t>
-  </si>
-  <si>
-    <t>Smart Serum-sku-4月-新客大</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F21 7-F22年6月</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F22年8月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F23年2月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F23年1月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F22年12月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F22年11月入会</t>
-  </si>
-  <si>
-    <t>Smart Serum-sku-4月已购∩会员</t>
-  </si>
-  <si>
-    <t>F23-4月-抗老50ml</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F22年10月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F22年9月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F23年3月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F22年7月入会</t>
-  </si>
-  <si>
-    <t>F23 4月-已购∩F23年4月入会</t>
-  </si>
-  <si>
-    <t>4月</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 30ml-新客</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 50ml-新客</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 30ml</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 50ml</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 100ml</t>
-  </si>
-  <si>
-    <t>F23  4月已购-EBCI 100ml-新客</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 30ml∩会员</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 50ml∩会员</t>
-  </si>
-  <si>
-    <t>F23 4月-EBCI 100ml∩会员</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM 125ml</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM 200ml</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM小∩新客</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM大∩新客</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM小∩会员</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM大∩会员</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM</t>
-  </si>
-  <si>
-    <t>F23 4月-DDM∩会员</t>
-  </si>
-  <si>
-    <t>F23 4月-TTDO-125ml</t>
-  </si>
-  <si>
-    <t>F23 4月已购-TTDO 200ml-sku</t>
-  </si>
-  <si>
-    <t>F23-4月已购-TTDO 125ml-sku-新客</t>
-  </si>
-  <si>
-    <t>F23 4月已购-TTDO 200ml-sku-新客</t>
+    <t>22年前历史入会会员∩佳沛未购∩Y22-育儿家∩Y21-育儿家</t>
+  </si>
+  <si>
+    <t>22年前历史入会会员∩佳沛未购∩Y22-家有老∩Y21-家有老</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛未购∩Y22-育儿家∩Y21-育儿家</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛未购∩Y22-家有老∩Y21-家有老</t>
+  </si>
+  <si>
+    <t>22年前历史入会∩佳沛购买（19-23年4月）∩Y22-育儿家∩Y22-育儿家</t>
+  </si>
+  <si>
+    <t>22年前历史入会∩佳沛购买（19-23年4月）∩Y22-家有老∩Y221-家有老</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛购买（19-23年4月）∩Y22-育儿家∩Y21-育儿家</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛购买（19-23年4月）∩Y22-家有老∩Y21-家有老</t>
+  </si>
+  <si>
+    <t>22年前历史入会会员∩佳沛未购∩Y22-悦已贵族</t>
+  </si>
+  <si>
+    <t>22年前历史入会会员∩佳沛未购∩新手妈妈_截止Y22.4.5</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛未购∩Y22-悦已贵族</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛未购∩新手妈妈_截止Y22.4.5</t>
+  </si>
+  <si>
+    <t>22年前历史入会会员∩佳沛购买（19-23年4月）∩Y22-悦已贵族</t>
+  </si>
+  <si>
+    <t>22年前历史入会会员∩佳沛购买（19-23年4月）∩新手妈妈_截止Y22.4.5</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛购买（19-23年4月）∩Y22-悦已贵族</t>
+  </si>
+  <si>
+    <t>Y22-悦已贵族</t>
+  </si>
+  <si>
+    <t>22年当年入会会员∩佳沛购买（19-23年4月）∩新手妈妈_截止Y22.4.5</t>
+  </si>
+  <si>
+    <t>佳沛购买（19-23年4月）</t>
+  </si>
+  <si>
+    <t>22年当年入会会员</t>
+  </si>
+  <si>
+    <t>22年前历史入会会员</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22.5.1-5.14-365老客</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22.3.21-5.14-365老客</t>
+  </si>
+  <si>
+    <t>W19(Y23.5.8-5.14)-跨类目拉新-非会员</t>
+  </si>
+  <si>
+    <t>Y22历史沉睡老客∩非会员购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>Y22历史沉睡老客∩会员购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>Y22历史新客人群∩非会员购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>Y22历史新客人群∩会员购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>Y22历史老客人群∩非会员购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>Y22历史老客人群∩会员购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>MTD(截止Y23.5.14)-跨类目拉新</t>
+  </si>
+  <si>
+    <t>W19(Y23.5.8-5.14)-跨类目拉新</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.5.1-5.14</t>
+  </si>
+  <si>
+    <t>Y22-入会未购∩佳沛购买_Y23.5.1-5.14</t>
+  </si>
+  <si>
+    <t>Y22佳沛未购买-沉睡老客∩佳沛购买_Y23.5.1-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22历史新客∩佳沛购买_Y23.5.1-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22历史老客∩佳沛购买_Y23.5.1-5.14</t>
+  </si>
+  <si>
+    <t>Y22-入会未购∩佳沛购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>Y22佳沛未购买-沉睡老客∩佳沛购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22历史新客∩佳沛购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22历史老客∩佳沛购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>活跃会员数_Y22.4</t>
+  </si>
+  <si>
+    <t>活跃会员数_Y23.4</t>
+  </si>
+  <si>
+    <t>进口水果_YTD-22.5.14</t>
+  </si>
+  <si>
+    <t>冻榴莲_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>冻榴莲_Y22.5.8-5.14</t>
+  </si>
+  <si>
+    <t>冻榴莲_YTD-22.5.14</t>
+  </si>
+  <si>
+    <t>冻榴莲_YTD-23.5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天新客_Y22.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天老客_Y22.5.8-5.14</t>
+  </si>
+  <si>
+    <t>进口水果_YTD-23.5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天新客_Y22.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天老客_Y22.5.8-5.14</t>
+  </si>
+  <si>
+    <t>进口水果_22.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天新客_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天老客_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天新客_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天老客_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>进口水果_23.5.8-5.14</t>
+  </si>
+  <si>
+    <t>Y22.4_开卡沉睡会员</t>
+  </si>
+  <si>
+    <t>Y23.4_开卡沉睡会员</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y21.5-22.4-365新客</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22.5-23.4-365新客</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y21.5-22.4</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22.5-23.4</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22-4</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23-4</t>
+  </si>
+  <si>
+    <t>90天复购会员老客_Y22-3.21-4.30</t>
+  </si>
+  <si>
+    <t>30天复购会员老客_Y22-3.21-4.30</t>
+  </si>
+  <si>
+    <t>90天复购会员老客_Y23-3.8-4.30</t>
+  </si>
+  <si>
+    <t>30天复购会员老客_Y23-3.8-4.30</t>
+  </si>
+  <si>
+    <t>Y21跨类目拉新∩非会员购买_Y22.3.21-4.30开季</t>
+  </si>
+  <si>
+    <t>Y21跨类目拉新∩会员购买_Y22.3.21-4.30开季</t>
+  </si>
+  <si>
+    <t>Y21跨类目拉新∩佳沛购买_Y22.3.21-4.30开季-1</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.5.9</t>
+  </si>
+  <si>
+    <t>Y21跨类目拉新∩佳沛购买_Y22.3.21-4.30开季</t>
+  </si>
+  <si>
+    <t>Y21未购历史沉睡老客-非会员购买_开季Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y21未购历史沉睡老客-会员购买_开季Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y21年新客-非会员购买_开季Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y21年新客-会员购买_开季Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y21年历史老客-非会员购买_开季Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y21年历史老客-会员购买_开季Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y22跨类目拉新∩非会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22跨类目拉新∩会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22未购历史沉睡老客-非会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22未购历史沉睡老客-会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22年新客-非会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22年新客-会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22年历史老客-非会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22年历史老客-会员购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22跨类目拉新∩佳沛购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>21年4大人群base∩开果季_Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>22年4大人群base∩佳沛购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>跨类目拉新-非会员-W18</t>
+  </si>
+  <si>
+    <t>进口水果_YTD-22.5.7</t>
+  </si>
+  <si>
+    <t>进口水果_YTD-23.5.7</t>
+  </si>
+  <si>
+    <t>冻榴莲_YTD-23.5.7</t>
+  </si>
+  <si>
+    <t>冻榴莲_YTD-22.5.7</t>
+  </si>
+  <si>
+    <t>Y21-入会未购∩开果季_Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y21佳沛未购买-沉睡老客∩开果季_Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y21历史新客∩开果季_Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y21历史老客∩开果季_Y22.3.21-4.30</t>
+  </si>
+  <si>
+    <t>Y22-入会未购∩佳沛购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y22佳沛未购买-沉睡老客∩佳沛购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22历史新客∩佳沛购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22历史老客∩佳沛购买_Y23.3.8-4.30开季</t>
+  </si>
+  <si>
+    <t>Y21-入会未购</t>
+  </si>
+  <si>
+    <t>Y21佳沛未购买-沉睡老客</t>
+  </si>
+  <si>
+    <t>冻榴莲_Y22.5.1-5.7</t>
+  </si>
+  <si>
+    <t>冻榴莲_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>家有老∩跨类目拉新_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>家有老∩入会未购_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>家有老∩历史老客_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>家有老∩22历史新客_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>家有老∩22历史老客_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>跨类目拉新-会员</t>
+  </si>
+  <si>
+    <t>跨类目拉新人群_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天新客_Y22.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天老客_Y22.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天新客_Y22.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天老客_Y22.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y22.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天新客_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_90天老客_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天新客_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_30天老客_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>进口水果_Y23.5.1-5.7</t>
+  </si>
+  <si>
+    <t>进口水果_Y22.5.1-5.7</t>
+  </si>
+  <si>
+    <t>Y22会员未购人群-产生购买</t>
+  </si>
+  <si>
+    <t>历史老客人群-非会员购买</t>
+  </si>
+  <si>
+    <t>历史老客人群-会员购买</t>
+  </si>
+  <si>
+    <t>历史老客人群-购买</t>
+  </si>
+  <si>
+    <t>Y22年新客人群-非会员购买</t>
+  </si>
+  <si>
+    <t>Y22年新客人群-会员购买</t>
+  </si>
+  <si>
+    <t>Y22年新客人群-购买</t>
+  </si>
+  <si>
+    <t>Y22年老客人群-购买</t>
+  </si>
+  <si>
+    <t>Y22年老客人群-非会员购买</t>
+  </si>
+  <si>
+    <t>进口水果_Y22.4.10-4.23</t>
+  </si>
+  <si>
+    <t>进口水果_Y23.4.24-5.7</t>
+  </si>
+  <si>
+    <t>开果季_Y22.3.21-4.30∩Y22-悦己贵族</t>
+  </si>
+  <si>
+    <t>开果季_Y22.3.21-4.30∩新手妈妈_截止Y22.4.5</t>
+  </si>
+  <si>
+    <t>开果季_Y22.3.21-4.30∩Y22-育儿家</t>
+  </si>
+  <si>
+    <t>开果季_Y22.3.21-4.30∩Y22-家有老</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.3.8-4.30开季∩四大人群合计</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.3.8-4.30开季∩Y22-悦己贵族</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.3.8-4.30开季∩新手妈妈_截止Y22.4.5</t>
+  </si>
+  <si>
+    <t>佳沛购买_Y23.3.8-4.30开季∩Y22-育儿家</t>
+  </si>
+  <si>
+    <t>Y22年老客人群-会员购买</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -550,15 +864,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="34.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -576,10 +888,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1683523896580644</v>
+        <v>1684396976628536</v>
       </c>
       <c r="C2">
-        <v>3246960</v>
+        <v>207967</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -587,10 +899,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>1683515283769147</v>
+        <v>1684396909608486</v>
       </c>
       <c r="C3">
-        <v>396219</v>
+        <v>58425</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -598,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>1683515240197013</v>
+        <v>1684396784891270</v>
       </c>
       <c r="C4">
-        <v>441047</v>
+        <v>124894</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -609,10 +921,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>1683515098534938</v>
+        <v>1684396672803576</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>32902</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -620,10 +932,10 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>1683515025836951</v>
+        <v>1684395830163334</v>
       </c>
       <c r="C6">
-        <v>484261</v>
+        <v>91308</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -631,10 +943,10 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>1683512725743972</v>
+        <v>1684395720891202</v>
       </c>
       <c r="C7">
-        <v>2535172</v>
+        <v>23276</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -642,10 +954,10 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>1683509295713418</v>
+        <v>1684395426287016</v>
       </c>
       <c r="C8">
-        <v>741606</v>
+        <v>33175</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -653,10 +965,10 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>1683359751566334</v>
+        <v>1684395276619487</v>
       </c>
       <c r="C9">
-        <v>182</v>
+        <v>7640</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -664,10 +976,10 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>1683359707716215</v>
+        <v>1684337694336931</v>
       </c>
       <c r="C10">
-        <v>112</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -675,10 +987,10 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>1683359643822671</v>
+        <v>1684337559656799</v>
       </c>
       <c r="C11">
-        <v>59</v>
+        <v>55088</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -686,10 +998,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>1683359584239405</v>
+        <v>1684337303755960</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
@@ -697,10 +1009,10 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>1683359417107678</v>
+        <v>1684337241193897</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>27011</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
@@ -708,10 +1020,10 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>1683357948751798</v>
+        <v>1684336941879175</v>
       </c>
       <c r="C14">
-        <v>148</v>
+        <v>4031</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
@@ -719,10 +1031,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>1683357915245921</v>
+        <v>1684336889479068</v>
       </c>
       <c r="C15">
-        <v>115</v>
+        <v>27907</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
@@ -730,10 +1042,10 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>1683357186399159</v>
+        <v>1684336244210740</v>
       </c>
       <c r="C16">
-        <v>987</v>
+        <v>6129</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
@@ -741,10 +1053,10 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>1683357101560593</v>
+        <v>1684336180605515</v>
       </c>
       <c r="C17">
-        <v>69</v>
+        <v>160847</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -752,10 +1064,10 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>1683357070543885</v>
+        <v>1684336029425204</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>12093</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -763,10 +1075,10 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>1683357021249308</v>
+        <v>1684311007407737</v>
       </c>
       <c r="C19">
-        <v>77</v>
+        <v>2814841</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -774,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>1683356995132742</v>
+        <v>1684310476281271</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>2562362</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,10 +1097,10 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>1683356967838612</v>
+        <v>1684310400156944</v>
       </c>
       <c r="C21">
-        <v>79</v>
+        <v>3024777</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
@@ -796,10 +1108,10 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>1683356231752190</v>
+        <v>1684228072265931</v>
       </c>
       <c r="C22">
-        <v>123</v>
+        <v>57711</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
@@ -807,10 +1119,10 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>1683356118521809</v>
+        <v>1684227411421077</v>
       </c>
       <c r="C23">
-        <v>139</v>
+        <v>93611</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -818,10 +1130,10 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>1683355803387156</v>
+        <v>1684212347378286</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>25118</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -829,10 +1141,10 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>1683355738686461</v>
+        <v>1684211847682347</v>
       </c>
       <c r="C25">
-        <v>64</v>
+        <v>6792</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -840,10 +1152,10 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>1683355685362106</v>
+        <v>1684211831924819</v>
       </c>
       <c r="C26">
-        <v>177</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -851,10 +1163,10 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>1683355627106783</v>
+        <v>1684211693870244</v>
       </c>
       <c r="C27">
-        <v>74</v>
+        <v>7668</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -862,10 +1174,10 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>1683355332945349</v>
+        <v>1684211678158718</v>
       </c>
       <c r="C28">
-        <v>3264</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -873,10 +1185,10 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>1683270440731595</v>
+        <v>1684211518292925</v>
       </c>
       <c r="C29">
-        <v>270824</v>
+        <v>10320</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -884,10 +1196,10 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>1683268541289843</v>
+        <v>1684211487775338</v>
       </c>
       <c r="C30">
-        <v>962</v>
+        <v>6248</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -895,10 +1207,10 @@
         <v>32</v>
       </c>
       <c r="B31">
-        <v>1683268513244375</v>
+        <v>1684144646632604</v>
       </c>
       <c r="C31">
-        <v>423</v>
+        <v>34595</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -906,10 +1218,10 @@
         <v>33</v>
       </c>
       <c r="B32">
-        <v>1683268485230584</v>
+        <v>1684144479121074</v>
       </c>
       <c r="C32">
-        <v>1739</v>
+        <v>24966</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -917,10 +1229,10 @@
         <v>34</v>
       </c>
       <c r="B33">
-        <v>1683268453738262</v>
+        <v>1684144057817952</v>
       </c>
       <c r="C33">
-        <v>1051</v>
+        <v>84038</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -928,10 +1240,10 @@
         <v>35</v>
       </c>
       <c r="B34">
-        <v>1683268425485033</v>
+        <v>1684143936278488</v>
       </c>
       <c r="C34">
-        <v>502</v>
+        <v>359</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.15">
@@ -939,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="B35">
-        <v>1683268395235561</v>
+        <v>1684143917502554</v>
       </c>
       <c r="C35">
-        <v>182</v>
+        <v>11913</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
@@ -950,10 +1262,10 @@
         <v>37</v>
       </c>
       <c r="B36">
-        <v>1683268364746578</v>
+        <v>1684143897594121</v>
       </c>
       <c r="C36">
-        <v>160</v>
+        <v>13187</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.15">
@@ -961,10 +1273,10 @@
         <v>38</v>
       </c>
       <c r="B37">
-        <v>1683268332580791</v>
+        <v>1684143769635482</v>
       </c>
       <c r="C37">
-        <v>467</v>
+        <v>24137</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.15">
@@ -972,10 +1284,10 @@
         <v>39</v>
       </c>
       <c r="B38">
-        <v>1683268297515531</v>
+        <v>1684143700319790</v>
       </c>
       <c r="C38">
-        <v>216</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.15">
@@ -983,10 +1295,10 @@
         <v>40</v>
       </c>
       <c r="B39">
-        <v>1683268253873488</v>
+        <v>1684143681902531</v>
       </c>
       <c r="C39">
-        <v>80</v>
+        <v>8484</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.15">
@@ -994,10 +1306,10 @@
         <v>41</v>
       </c>
       <c r="B40">
-        <v>1683268208298962</v>
+        <v>1684143655422154</v>
       </c>
       <c r="C40">
-        <v>5475</v>
+        <v>9448</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -1005,10 +1317,10 @@
         <v>42</v>
       </c>
       <c r="B41">
-        <v>1683268180554793</v>
+        <v>1684143627623366</v>
       </c>
       <c r="C41">
-        <v>1606</v>
+        <v>16568</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -1016,10 +1328,10 @@
         <v>43</v>
       </c>
       <c r="B42">
-        <v>1683268148479942</v>
+        <v>1684138188423805</v>
       </c>
       <c r="C42">
-        <v>4429</v>
+        <v>58829</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -1027,10 +1339,10 @@
         <v>44</v>
       </c>
       <c r="B43">
-        <v>1683268119617898</v>
+        <v>1684138158872717</v>
       </c>
       <c r="C43">
-        <v>1402</v>
+        <v>63103</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -1038,10 +1350,10 @@
         <v>45</v>
       </c>
       <c r="B44">
-        <v>1683268087548307</v>
+        <v>1684137132795294</v>
       </c>
       <c r="C44">
-        <v>1678</v>
+        <v>3468692</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -1049,10 +1361,10 @@
         <v>46</v>
       </c>
       <c r="B45">
-        <v>1683268052537871</v>
+        <v>1684136905302053</v>
       </c>
       <c r="C45">
-        <v>593</v>
+        <v>34351</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -1060,10 +1372,10 @@
         <v>47</v>
       </c>
       <c r="B46">
-        <v>1683268012260316</v>
+        <v>1684136885308123</v>
       </c>
       <c r="C46">
-        <v>7327</v>
+        <v>31224</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -1071,10 +1383,10 @@
         <v>48</v>
       </c>
       <c r="B47">
-        <v>1683267984492837</v>
+        <v>1684136848434690</v>
       </c>
       <c r="C47">
-        <v>2399</v>
+        <v>402178</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -1082,10 +1394,10 @@
         <v>49</v>
       </c>
       <c r="B48">
-        <v>1683267952119114</v>
+        <v>1684136818756792</v>
       </c>
       <c r="C48">
-        <v>423</v>
+        <v>478989</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -1093,10 +1405,10 @@
         <v>50</v>
       </c>
       <c r="B49">
-        <v>1683267922475273</v>
+        <v>1684136785132355</v>
       </c>
       <c r="C49">
-        <v>709</v>
+        <v>77473</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -1104,10 +1416,10 @@
         <v>51</v>
       </c>
       <c r="B50">
-        <v>1683267889776563</v>
+        <v>1684136774364194</v>
       </c>
       <c r="C50">
-        <v>292</v>
+        <v>23186</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -1115,10 +1427,1110 @@
         <v>52</v>
       </c>
       <c r="B51">
-        <v>1683267859413659</v>
+        <v>1684135567685487</v>
       </c>
       <c r="C51">
-        <v>599</v>
+        <v>3556082</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>1684135168634799</v>
+      </c>
+      <c r="C52">
+        <v>83173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>1684135155882928</v>
+      </c>
+      <c r="C53">
+        <v>17486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>1684134801141669</v>
+      </c>
+      <c r="C54">
+        <v>307440</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>1684134765547417</v>
+      </c>
+      <c r="C55">
+        <v>100659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>1684134740783796</v>
+      </c>
+      <c r="C56">
+        <v>45249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>1684134730536555</v>
+      </c>
+      <c r="C57">
+        <v>14369</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>1684134698729022</v>
+      </c>
+      <c r="C58">
+        <v>50951</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>1684134685802359</v>
+      </c>
+      <c r="C59">
+        <v>8667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>1684134642304092</v>
+      </c>
+      <c r="C60">
+        <v>59618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>1684134561845237</v>
+      </c>
+      <c r="C61">
+        <v>322865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>1684132002606589</v>
+      </c>
+      <c r="C62">
+        <v>3936993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1684131961391447</v>
+      </c>
+      <c r="C63">
+        <v>5607245</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>1684131167913371</v>
+      </c>
+      <c r="C64">
+        <v>738453</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>1684130883292518</v>
+      </c>
+      <c r="C65">
+        <v>638980</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>1684130371127964</v>
+      </c>
+      <c r="C66">
+        <v>982961</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>1684130342582875</v>
+      </c>
+      <c r="C67">
+        <v>909228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>1684130275437522</v>
+      </c>
+      <c r="C68">
+        <v>156744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69">
+        <v>1684130088805421</v>
+      </c>
+      <c r="C69">
+        <v>80988</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70">
+        <v>1683800473296446</v>
+      </c>
+      <c r="C70">
+        <v>5612</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71">
+        <v>1683800296428281</v>
+      </c>
+      <c r="C71">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72">
+        <v>1683800028373909</v>
+      </c>
+      <c r="C72">
+        <v>9958</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73">
+        <v>1683799908138132</v>
+      </c>
+      <c r="C73">
+        <v>4207</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74">
+        <v>1683796948915907</v>
+      </c>
+      <c r="C74">
+        <v>105324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75">
+        <v>1683796919412148</v>
+      </c>
+      <c r="C75">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76">
+        <v>1683789921554026</v>
+      </c>
+      <c r="C76">
+        <v>111406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77">
+        <v>1683784473616635</v>
+      </c>
+      <c r="C77">
+        <v>30823</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78">
+        <v>1683784429179934</v>
+      </c>
+      <c r="C78">
+        <v>111406</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79">
+        <v>1683778015232079</v>
+      </c>
+      <c r="C79">
+        <v>17038</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80">
+        <v>1683777893203336</v>
+      </c>
+      <c r="C80">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81">
+        <v>1683777693858047</v>
+      </c>
+      <c r="C81">
+        <v>19646</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82">
+        <v>1683777652788496</v>
+      </c>
+      <c r="C82">
+        <v>4686</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83">
+        <v>1683777490628135</v>
+      </c>
+      <c r="C83">
+        <v>20280</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84">
+        <v>1683777340181093</v>
+      </c>
+      <c r="C84">
+        <v>12372</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85">
+        <v>1683776957584160</v>
+      </c>
+      <c r="C85">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86">
+        <v>1683776878180727</v>
+      </c>
+      <c r="C86">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87">
+        <v>1683776605790236</v>
+      </c>
+      <c r="C87">
+        <v>14526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88">
+        <v>1683776581482701</v>
+      </c>
+      <c r="C88">
+        <v>4921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89">
+        <v>1683776014257160</v>
+      </c>
+      <c r="C89">
+        <v>18383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90">
+        <v>1683775980845332</v>
+      </c>
+      <c r="C90">
+        <v>5975</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91">
+        <v>1683775784499512</v>
+      </c>
+      <c r="C91">
+        <v>26495</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92">
+        <v>1683775748116680</v>
+      </c>
+      <c r="C92">
+        <v>19829</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93">
+        <v>1683716953597378</v>
+      </c>
+      <c r="C93">
+        <v>50985</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94">
+        <v>1683716872193040</v>
+      </c>
+      <c r="C94">
+        <v>81142</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95">
+        <v>1683716780821309</v>
+      </c>
+      <c r="C95">
+        <v>90524</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96">
+        <v>1683711989444183</v>
+      </c>
+      <c r="C96">
+        <v>7914</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97">
+        <v>1683697820677098</v>
+      </c>
+      <c r="C97">
+        <v>3298551</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98">
+        <v>1683698062445083</v>
+      </c>
+      <c r="C98">
+        <v>3341113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99">
+        <v>1683698129444591</v>
+      </c>
+      <c r="C99">
+        <v>452171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100">
+        <v>1683698096787315</v>
+      </c>
+      <c r="C100">
+        <v>375966</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>1683685130201131</v>
+      </c>
+      <c r="C101">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102">
+        <v>1683685109904594</v>
+      </c>
+      <c r="C102">
+        <v>20046</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103">
+        <v>1683685085734927</v>
+      </c>
+      <c r="C103">
+        <v>25783</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104">
+        <v>1683685061884492</v>
+      </c>
+      <c r="C104">
+        <v>34896</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105">
+        <v>1683628478862460</v>
+      </c>
+      <c r="C105">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106">
+        <v>1683628355602193</v>
+      </c>
+      <c r="C106">
+        <v>19447</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107">
+        <v>1683628311918464</v>
+      </c>
+      <c r="C107">
+        <v>24358</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108">
+        <v>1683628161816342</v>
+      </c>
+      <c r="C108">
+        <v>46324</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109">
+        <v>1683627182377006</v>
+      </c>
+      <c r="C109">
+        <v>2227898</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110">
+        <v>1683627080158444</v>
+      </c>
+      <c r="C110">
+        <v>1886272</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111">
+        <v>1683617135697659</v>
+      </c>
+      <c r="C111">
+        <v>16091</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112">
+        <v>1683617116482234</v>
+      </c>
+      <c r="C112">
+        <v>21153</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113">
+        <v>1683616012556252</v>
+      </c>
+      <c r="C113">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114">
+        <v>1683615965756073</v>
+      </c>
+      <c r="C114">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115">
+        <v>1683615865513939</v>
+      </c>
+      <c r="C115">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116">
+        <v>1683615787234178</v>
+      </c>
+      <c r="C116">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117">
+        <v>1683615744640775</v>
+      </c>
+      <c r="C117">
+        <v>4617</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118">
+        <v>1683611433301630</v>
+      </c>
+      <c r="C118">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119">
+        <v>1683603705411961</v>
+      </c>
+      <c r="C119">
+        <v>10286</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120">
+        <v>1683600538747848</v>
+      </c>
+      <c r="C120">
+        <v>33106</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121">
+        <v>1683600527162079</v>
+      </c>
+      <c r="C121">
+        <v>12295</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>1683600508928528</v>
+      </c>
+      <c r="C122">
+        <v>35987</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123">
+        <v>1683600495662691</v>
+      </c>
+      <c r="C123">
+        <v>9414</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124">
+        <v>1683600460747213</v>
+      </c>
+      <c r="C124">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125">
+        <v>1683600441649800</v>
+      </c>
+      <c r="C125">
+        <v>18568</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126">
+        <v>1683600425167839</v>
+      </c>
+      <c r="C126">
+        <v>8607</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127">
+        <v>1683600172156703</v>
+      </c>
+      <c r="C127">
+        <v>21865</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>1683600157626433</v>
+      </c>
+      <c r="C128">
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129">
+        <v>1683600086380095</v>
+      </c>
+      <c r="C129">
+        <v>27175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130">
+        <v>1683598116191029</v>
+      </c>
+      <c r="C130">
+        <v>211364</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131">
+        <v>1683597332134537</v>
+      </c>
+      <c r="C131">
+        <v>257345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132">
+        <v>1683550988538964</v>
+      </c>
+      <c r="C132">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133">
+        <v>1683550426867142</v>
+      </c>
+      <c r="C133">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>1683550342514844</v>
+      </c>
+      <c r="C134">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135">
+        <v>1683550279555871</v>
+      </c>
+      <c r="C135">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136">
+        <v>1683550012293632</v>
+      </c>
+      <c r="C136">
+        <v>3407</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137">
+        <v>1683549969397481</v>
+      </c>
+      <c r="C137">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138">
+        <v>1683549831713262</v>
+      </c>
+      <c r="C138">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139">
+        <v>1683549684132192</v>
+      </c>
+      <c r="C139">
+        <v>8857</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140">
+        <v>1683549560805877</v>
+      </c>
+      <c r="C140">
+        <v>5301</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141">
+        <v>1683549497910520</v>
+      </c>
+      <c r="C141">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" t="s">
+        <v>142</v>
+      </c>
+      <c r="B142">
+        <v>1683539951677288</v>
+      </c>
+      <c r="C142">
+        <v>340062</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" t="s">
+        <v>143</v>
+      </c>
+      <c r="B143">
+        <v>1683539175796917</v>
+      </c>
+      <c r="C143">
+        <v>440382</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" t="s">
+        <v>144</v>
+      </c>
+      <c r="B144">
+        <v>1683527958203458</v>
+      </c>
+      <c r="C144">
+        <v>28292</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" t="s">
+        <v>145</v>
+      </c>
+      <c r="B145">
+        <v>1683527939649849</v>
+      </c>
+      <c r="C145">
+        <v>25983</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" t="s">
+        <v>146</v>
+      </c>
+      <c r="B146">
+        <v>1683527919875727</v>
+      </c>
+      <c r="C146">
+        <v>98560</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" t="s">
+        <v>147</v>
+      </c>
+      <c r="B147">
+        <v>1683527888810323</v>
+      </c>
+      <c r="C147">
+        <v>69948</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148">
+        <v>1683527801285618</v>
+      </c>
+      <c r="C148">
+        <v>109767</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" t="s">
+        <v>149</v>
+      </c>
+      <c r="B149">
+        <v>1683527771711730</v>
+      </c>
+      <c r="C149">
+        <v>5955</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" t="s">
+        <v>150</v>
+      </c>
+      <c r="B150">
+        <v>1683527750679204</v>
+      </c>
+      <c r="C150">
+        <v>26614</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" t="s">
+        <v>151</v>
+      </c>
+      <c r="B151">
+        <v>1683527666721448</v>
+      </c>
+      <c r="C151">
+        <v>82475</v>
       </c>
     </row>
   </sheetData>
